--- a/AECPLoadIndicator/tests/testthat/Table_R_products_example.xlsx
+++ b/AECPLoadIndicator/tests/testthat/Table_R_products_example.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HIWI-Workfolder\Leonie\NAP\Final_Pesticide_Load_Calculation\PL_Swiss_examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uweschmitt/Projects/Load-Indicator/AECPLoadIndicator/tests/testthat/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5951556-0E53-3A40-9010-A36FEE091BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25260" windowHeight="11430"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25260" windowHeight="11440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,7 +172,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="EsriDoNotEdit"/>
+        <xdr:cNvPr id="2" name="EsriDoNotEdit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -510,26 +517,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -552,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +582,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -598,7 +605,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -621,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -644,229 +651,266 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>350</v>
-      </c>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -875,12 +919,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/AECPLoadIndicator/tests/testthat/Table_R_products_example.xlsx
+++ b/AECPLoadIndicator/tests/testthat/Table_R_products_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uweschmitt/Projects/Load-Indicator/AECPLoadIndicator/tests/testthat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5951556-0E53-3A40-9010-A36FEE091BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC045F55-DDBC-274E-8F3B-2EC7C5BEE386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25260" windowHeight="11440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:G34"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -624,9 +624,6 @@
       <c r="F4" s="1">
         <v>0.25555555555555598</v>
       </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -643,9 +640,6 @@
       </c>
       <c r="E5" s="1">
         <v>1.5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
       </c>
       <c r="G5" s="1">
         <v>2.5</v>

--- a/AECPLoadIndicator/tests/testthat/Table_R_products_example.xlsx
+++ b/AECPLoadIndicator/tests/testthat/Table_R_products_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uweschmitt/Projects/Load-Indicator/AECPLoadIndicator/tests/testthat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC045F55-DDBC-274E-8F3B-2EC7C5BEE386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47806FBF-CFA2-5D4C-878B-256AC1D2C492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25260" windowHeight="11440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="2960" windowWidth="25260" windowHeight="11440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,13 +64,13 @@
     <t>amount.applied</t>
   </si>
   <si>
-    <t>standard.doses</t>
-  </si>
-  <si>
     <t>reference.sum.risk.scores</t>
   </si>
   <si>
     <t>apple</t>
+  </si>
+  <si>
+    <t>standard.dosage</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -547,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>25</v>
